--- a/dashboard/online_help/management/dataset/Radiant_2025.1_help_assignments_v3_copy.xlsx
+++ b/dashboard/online_help/management/dataset/Radiant_2025.1_help_assignments_v3_copy.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://latticesemiconductor4-my.sharepoint.com/personal/jonathan_bunquin_latticesemi_com/Documents/Documents/GitHub/help_dashboard_django/dashboard/online_help/management/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E7C28E-CBAD-417D-9B99-6FE99D8518F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{28E7C28E-CBAD-417D-9B99-6FE99D8518F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE329C26-3AF7-4E0D-B189-7A1FDDEDE7F2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="online_help_user_guides" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="298">
   <si>
     <t>Radiant Documentation</t>
   </si>
@@ -1634,13 +1634,16 @@
   <si>
     <t>grey</t>
   </si>
+  <si>
+    <t>Comments</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -1994,7 +1997,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="123">
@@ -2076,16 +2079,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2428,6 +2431,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2727,29 +2734,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="43" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="92.77734375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="30.5546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="25.77734375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="9"/>
+    <col min="1" max="1" width="18.453125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="43" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="92.81640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="34.54296875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="30.54296875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="25.81640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" style="46" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2763,7 +2770,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>130</v>
@@ -2783,8 +2790,11 @@
       <c r="K1" s="9" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" s="20" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="20" customFormat="1" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>8</v>
       </c>
@@ -2794,7 +2804,7 @@
       <c r="I2" s="21"/>
       <c r="J2" s="22"/>
     </row>
-    <row r="3" spans="1:11" s="74" customFormat="1" ht="23.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="74" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="68"/>
       <c r="B3" s="112" t="s">
         <v>9</v>
@@ -2817,7 +2827,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="74" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="74" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="75"/>
       <c r="B4" s="112" t="s">
         <v>9</v>
@@ -2840,7 +2850,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="74" customFormat="1" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="74" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="75"/>
       <c r="B5" s="112" t="s">
         <v>9</v>
@@ -2863,7 +2873,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="6" t="s">
         <v>9</v>
@@ -2882,7 +2892,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="6" t="s">
         <v>9</v>
@@ -2901,7 +2911,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="6" t="s">
         <v>9</v>
@@ -2920,7 +2930,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="6" t="s">
         <v>10</v>
@@ -2941,7 +2951,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="6" t="s">
         <v>10</v>
@@ -2962,7 +2972,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="6" t="s">
         <v>10</v>
@@ -2981,7 +2991,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="6" t="s">
         <v>10</v>
@@ -3000,7 +3010,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="6" t="s">
         <v>10</v>
@@ -3019,7 +3029,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="6" t="s">
         <v>10</v>
@@ -3038,7 +3048,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="6" t="s">
         <v>10</v>
@@ -3057,7 +3067,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="54.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="6" t="s">
         <v>10</v>
@@ -3078,7 +3088,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="6" t="s">
         <v>10</v>
@@ -3099,7 +3109,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="6" t="s">
         <v>10</v>
@@ -3118,7 +3128,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="6" t="s">
         <v>10</v>
@@ -3139,7 +3149,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="6" t="s">
         <v>10</v>
@@ -3160,7 +3170,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="6" t="s">
         <v>10</v>
@@ -3181,7 +3191,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="6" t="s">
         <v>10</v>
@@ -3200,7 +3210,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="6" t="s">
         <v>10</v>
@@ -3221,7 +3231,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="6" t="s">
         <v>10</v>
@@ -3240,7 +3250,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="95" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="95" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="89"/>
       <c r="B25" s="106" t="s">
         <v>10</v>
@@ -3265,7 +3275,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="12" t="s">
         <v>10</v>
@@ -3284,7 +3294,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="6" t="s">
         <v>10</v>
@@ -3305,7 +3315,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="6" t="s">
         <v>10</v>
@@ -3326,7 +3336,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="6" t="s">
         <v>10</v>
@@ -3347,7 +3357,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="6" t="s">
         <v>10</v>
@@ -3368,7 +3378,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="6" t="s">
         <v>10</v>
@@ -3391,7 +3401,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="20.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="20.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="24"/>
       <c r="B32" s="12" t="s">
         <v>22</v>
@@ -3412,7 +3422,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="20.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="20.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24"/>
       <c r="B33" s="12" t="s">
         <v>22</v>
@@ -3431,7 +3441,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="20.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="20.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="24"/>
       <c r="B34" s="12" t="s">
         <v>22</v>
@@ -3450,7 +3460,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="20.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="20.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="24"/>
       <c r="B35" s="12" t="s">
         <v>22</v>
@@ -3469,7 +3479,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="24"/>
       <c r="B36" s="12" t="s">
         <v>22</v>
@@ -3492,7 +3502,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="28" customFormat="1" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" s="28" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="25"/>
       <c r="B37" s="12" t="s">
         <v>22</v>
@@ -3515,7 +3525,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10"/>
       <c r="B38" s="12" t="s">
         <v>23</v>
@@ -3536,7 +3546,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="12" t="s">
         <v>23</v>
@@ -3559,7 +3569,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="12" t="s">
         <v>23</v>
@@ -3580,7 +3590,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="19.350000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="12" t="s">
         <v>23</v>
@@ -3601,7 +3611,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="6" t="s">
         <v>26</v>
@@ -3622,7 +3632,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="26.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="26.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
       <c r="B43" s="6" t="s">
         <v>26</v>
@@ -3643,7 +3653,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="46.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="46.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="6" t="s">
         <v>26</v>
@@ -3664,7 +3674,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10"/>
       <c r="B45" s="6" t="s">
         <v>26</v>
@@ -3683,7 +3693,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10"/>
       <c r="B46" s="6" t="s">
         <v>26</v>
@@ -3704,7 +3714,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="33"/>
       <c r="B47" s="6" t="s">
         <v>26</v>
@@ -3725,7 +3735,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="37" customFormat="1" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" s="37" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="33"/>
       <c r="B48" s="6" t="s">
         <v>26</v>
@@ -3746,7 +3756,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="33"/>
       <c r="B49" s="6" t="s">
         <v>26</v>
@@ -3767,7 +3777,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="37" customFormat="1" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" s="37" customFormat="1" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="33"/>
       <c r="B50" s="6" t="s">
         <v>26</v>
@@ -3788,7 +3798,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="83" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" s="83" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="78"/>
       <c r="B51" s="79" t="s">
         <v>26</v>
@@ -3813,7 +3823,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
       <c r="B52" s="12" t="s">
         <v>26</v>
@@ -3834,7 +3844,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="95" customFormat="1" ht="94.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="95" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="89"/>
       <c r="B53" s="90" t="s">
         <v>26</v>
@@ -3857,7 +3867,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
       <c r="B54" s="12" t="s">
         <v>26</v>
@@ -3876,7 +3886,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
       <c r="B55" s="12" t="s">
         <v>26</v>
@@ -3897,7 +3907,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
       <c r="B56" s="12" t="s">
         <v>26</v>
@@ -3916,7 +3926,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10"/>
       <c r="B57" s="12" t="s">
         <v>26</v>
@@ -3935,7 +3945,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
       <c r="B58" s="6" t="s">
         <v>32</v>
@@ -3956,7 +3966,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10"/>
       <c r="B59" s="6" t="s">
         <v>32</v>
@@ -3975,7 +3985,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10"/>
       <c r="B60" s="6" t="s">
         <v>32</v>
@@ -3995,7 +4005,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61" s="10"/>
       <c r="B61" s="6" t="s">
         <v>32</v>
@@ -4016,7 +4026,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10"/>
       <c r="B62" s="6" t="s">
         <v>32</v>
@@ -4037,7 +4047,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10"/>
       <c r="B63" s="6" t="s">
         <v>32</v>
@@ -4053,7 +4063,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64" s="10"/>
       <c r="B64" s="6" t="s">
         <v>32</v>
@@ -4072,7 +4082,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A65" s="10"/>
       <c r="B65" s="12" t="s">
         <v>204</v>
@@ -4093,7 +4103,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66" s="10"/>
       <c r="B66" s="12" t="s">
         <v>37</v>
@@ -4112,7 +4122,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10"/>
       <c r="B67" s="12" t="s">
         <v>37</v>
@@ -4133,7 +4143,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A68" s="10"/>
       <c r="B68" s="12" t="s">
         <v>37</v>
@@ -4154,7 +4164,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10"/>
       <c r="B69" s="12" t="s">
         <v>37</v>
@@ -4175,7 +4185,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10"/>
       <c r="B70" s="12" t="s">
         <v>37</v>
@@ -4198,7 +4208,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A71" s="10"/>
       <c r="B71" s="12" t="s">
         <v>37</v>
@@ -4219,7 +4229,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72" s="10"/>
       <c r="B72" s="6" t="s">
         <v>38</v>
@@ -4238,7 +4248,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" ht="68.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10"/>
       <c r="B73" s="6" t="s">
         <v>38</v>
@@ -4257,7 +4267,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A74" s="10"/>
       <c r="B74" s="6" t="s">
         <v>38</v>
@@ -4276,7 +4286,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10"/>
       <c r="B75" s="6" t="s">
         <v>38</v>
@@ -4295,7 +4305,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76" s="10"/>
       <c r="B76" s="6" t="s">
         <v>38</v>
@@ -4314,7 +4324,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="10"/>
       <c r="B77" s="6" t="s">
         <v>38</v>
@@ -4333,7 +4343,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78" s="10"/>
       <c r="B78" s="6" t="s">
         <v>38</v>
@@ -4352,7 +4362,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10"/>
       <c r="B79" s="6" t="s">
         <v>38</v>
@@ -4371,7 +4381,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80" s="10"/>
       <c r="B80" s="6" t="s">
         <v>38</v>
@@ -4390,7 +4400,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81" s="10"/>
       <c r="B81" s="6" t="s">
         <v>38</v>
@@ -4409,7 +4419,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="74" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" s="74" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="75"/>
       <c r="B82" s="84" t="s">
         <v>38</v>
@@ -4434,7 +4444,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="10"/>
       <c r="B83" s="12" t="s">
         <v>38</v>
@@ -4453,7 +4463,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="74" customFormat="1" ht="79.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="74" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="75"/>
       <c r="B84" s="84" t="s">
         <v>38</v>
@@ -4478,7 +4488,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10"/>
       <c r="B85" s="12" t="s">
         <v>38</v>
@@ -4497,7 +4507,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86" s="10"/>
       <c r="B86" s="12" t="s">
         <v>38</v>
@@ -4516,7 +4526,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10"/>
       <c r="B87" s="12" t="s">
         <v>38</v>
@@ -4535,7 +4545,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="10"/>
       <c r="B88" s="12" t="s">
         <v>38</v>
@@ -4554,7 +4564,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="41.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="41.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="10"/>
       <c r="B89" s="12" t="s">
         <v>38</v>
@@ -4573,7 +4583,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90" s="10"/>
       <c r="B90" s="12" t="s">
         <v>38</v>
@@ -4592,7 +4602,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="10"/>
       <c r="B91" s="12" t="s">
         <v>38</v>
@@ -4611,7 +4621,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="10"/>
       <c r="B92" s="12" t="s">
         <v>38</v>
@@ -4630,7 +4640,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="10"/>
       <c r="B93" s="12" t="s">
         <v>38</v>
@@ -4651,7 +4661,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="10"/>
       <c r="B94" s="12" t="s">
         <v>38</v>
@@ -4670,7 +4680,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" ht="37.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="10"/>
       <c r="B95" s="12" t="s">
         <v>38</v>
@@ -4689,7 +4699,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="37.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="37.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="10"/>
       <c r="B96" s="12" t="s">
         <v>38</v>
@@ -4708,7 +4718,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="10"/>
       <c r="B97" s="12" t="s">
         <v>38</v>
@@ -4726,7 +4736,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98" s="10"/>
       <c r="B98" s="6" t="s">
         <v>61</v>
@@ -4747,7 +4757,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99" s="10"/>
       <c r="B99" s="12"/>
       <c r="C99" s="5" t="s">
@@ -4766,7 +4776,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="10"/>
       <c r="B100" s="12" t="s">
         <v>63</v>
@@ -4787,7 +4797,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="10"/>
       <c r="B101" s="12" t="s">
         <v>63</v>
@@ -4806,7 +4816,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="10"/>
       <c r="B102" s="12" t="s">
         <v>63</v>
@@ -4825,7 +4835,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="10"/>
       <c r="B103" s="12" t="s">
         <v>63</v>
@@ -4844,7 +4854,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104" s="10"/>
       <c r="B104" s="12" t="s">
         <v>63</v>
@@ -4867,7 +4877,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105" s="10"/>
       <c r="B105" s="12" t="s">
         <v>63</v>
@@ -4888,7 +4898,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A106" s="10"/>
       <c r="B106" s="12" t="s">
         <v>63</v>
@@ -4907,7 +4917,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="75" x14ac:dyDescent="0.35">
       <c r="A107" s="10"/>
       <c r="B107" s="12" t="s">
         <v>63</v>
@@ -4926,7 +4936,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A108" s="10"/>
       <c r="B108" s="12" t="s">
         <v>63</v>
@@ -4947,7 +4957,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A109" s="10"/>
       <c r="B109" s="12" t="s">
         <v>63</v>
@@ -4968,7 +4978,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110" s="10"/>
       <c r="B110" s="12" t="s">
         <v>63</v>
@@ -4989,7 +4999,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111" s="10"/>
       <c r="B111" s="12" t="s">
         <v>63</v>
@@ -5010,7 +5020,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="10"/>
       <c r="B112" s="12" t="s">
         <v>63</v>
@@ -5031,7 +5041,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="113" spans="1:11" ht="103.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="10"/>
       <c r="B113" s="6" t="s">
         <v>70</v>
@@ -5054,7 +5064,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="95" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" s="95" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="89"/>
       <c r="B114" s="90" t="s">
         <v>70</v>
@@ -5079,7 +5089,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="10"/>
       <c r="B115" s="12" t="s">
         <v>70</v>
@@ -5100,7 +5110,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="74" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" s="74" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="75"/>
       <c r="B116" s="77" t="s">
         <v>70</v>
@@ -5125,7 +5135,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="117" spans="1:11" ht="31.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="31.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="24"/>
       <c r="B117" s="12" t="s">
         <v>70</v>
@@ -5142,7 +5152,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B118" s="43" t="s">
         <v>70</v>
       </c>
@@ -5160,7 +5170,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="119" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A119" s="10"/>
       <c r="B119" s="4" t="s">
         <v>75</v>
@@ -5179,7 +5189,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="120" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A120" s="10"/>
       <c r="B120" s="4" t="s">
         <v>75</v>
@@ -5198,7 +5208,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="121" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A121" s="10"/>
       <c r="B121" s="4" t="s">
         <v>75</v>
@@ -5217,7 +5227,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A122" s="10"/>
       <c r="B122" s="4" t="s">
         <v>75</v>
@@ -5255,29 +5265,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C157076-448F-48C3-BEDC-072DE93C7405}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="43" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="92.77734375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="30.5546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="25.77734375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="9"/>
+    <col min="1" max="1" width="18.453125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="43" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="92.81640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="34.54296875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="30.54296875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="25.81640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" style="46" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -5291,7 +5301,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>130</v>
@@ -5311,8 +5321,11 @@
       <c r="K1" s="9" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="L1" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>78</v>
       </c>
@@ -5326,7 +5339,7 @@
       <c r="I2" s="50"/>
       <c r="J2" s="5"/>
     </row>
-    <row r="3" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="12" t="s">
         <v>79</v>
@@ -5347,7 +5360,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="12" t="s">
         <v>79</v>
@@ -5366,7 +5379,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="12" t="s">
         <v>79</v>
@@ -5387,7 +5400,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="12" t="s">
         <v>79</v>
@@ -5410,7 +5423,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="12" t="s">
         <v>79</v>
@@ -5429,7 +5442,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="12" t="s">
         <v>79</v>
@@ -5450,7 +5463,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="132.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="132.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="12" t="s">
         <v>79</v>
@@ -5473,7 +5486,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="12" t="s">
         <v>79</v>
@@ -5494,7 +5507,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="12" t="s">
         <v>79</v>
@@ -5515,7 +5528,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="12" t="s">
         <v>79</v>
@@ -5536,7 +5549,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="12" t="s">
         <v>79</v>
@@ -5557,7 +5570,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="12" t="s">
         <v>79</v>
@@ -5576,7 +5589,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="12" t="s">
         <v>79</v>
@@ -5599,7 +5612,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="12" t="s">
         <v>79</v>
@@ -5620,7 +5633,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>86</v>
@@ -5641,7 +5654,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="22.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="4" t="s">
         <v>86</v>
@@ -5664,7 +5677,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="4" t="s">
         <v>86</v>
@@ -5687,7 +5700,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="12" t="s">
         <v>187</v>
@@ -5708,7 +5721,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
       <c r="C21" s="5" t="s">
@@ -5727,7 +5740,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="6" t="s">
         <v>89</v>
@@ -5748,7 +5761,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="25" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="6" t="s">
         <v>89</v>
@@ -5769,7 +5782,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="6" t="s">
         <v>89</v>
@@ -5790,7 +5803,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="6" t="s">
         <v>89</v>
@@ -5811,7 +5824,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="70.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="70" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="6" t="s">
         <v>89</v>
@@ -5832,7 +5845,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="49.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="49" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="6" t="s">
         <v>89</v>
@@ -5853,7 +5866,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="34.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="34.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="6" t="s">
         <v>89</v>
@@ -5874,7 +5887,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="104" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" s="104" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A29" s="96"/>
       <c r="B29" s="97" t="s">
         <v>89</v>
@@ -5899,7 +5912,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="12" t="s">
         <v>89</v>
@@ -5922,7 +5935,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="12" t="s">
         <v>89</v>
@@ -5941,7 +5954,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="12" t="s">
         <v>89</v>
@@ -5960,7 +5973,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="6" t="s">
         <v>90</v>
@@ -5979,7 +5992,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="6" t="s">
         <v>90</v>
@@ -5998,7 +6011,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="6" t="s">
         <v>90</v>
@@ -6017,7 +6030,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="95" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" s="95" customFormat="1" ht="38.5" x14ac:dyDescent="0.35">
       <c r="A36" s="89"/>
       <c r="B36" s="106" t="s">
         <v>90</v>
@@ -6042,7 +6055,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="50" x14ac:dyDescent="0.35">
       <c r="A37" s="10"/>
       <c r="B37" s="6" t="s">
         <v>93</v>
@@ -6065,7 +6078,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="95" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="95" customFormat="1" ht="38.5" x14ac:dyDescent="0.3">
       <c r="A38" s="89"/>
       <c r="B38" s="90" t="s">
         <v>93</v>
@@ -6090,7 +6103,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="104" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="104" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A39" s="96"/>
       <c r="B39" s="97" t="s">
         <v>93</v>
@@ -6115,7 +6128,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="50" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="12" t="s">
         <v>93</v>
@@ -6136,7 +6149,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="58.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="58.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="12" t="s">
         <v>93</v>
@@ -6157,7 +6170,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="71.099999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="12" t="s">
         <v>93</v>
@@ -6178,7 +6191,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="74" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" s="74" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="75"/>
       <c r="B43" s="77" t="s">
         <v>93</v>
@@ -6222,29 +6235,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB41B00-6CF4-4E91-BF32-A0BD8AAB08F7}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="43" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="92.77734375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="30.5546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="25.77734375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="9"/>
+    <col min="1" max="1" width="18.453125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="43" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="92.81640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="34.54296875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="30.54296875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="25.81640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" style="46" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6258,7 +6271,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>130</v>
@@ -6278,8 +6291,11 @@
       <c r="K1" s="9" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="L1" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="26" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>95</v>
       </c>
@@ -6293,7 +6309,7 @@
       <c r="I2" s="38"/>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:11" ht="25.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="25.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>96</v>
@@ -6312,7 +6328,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="61.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="61.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>97</v>
@@ -6331,7 +6347,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="122.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="122.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>98</v>
@@ -6348,7 +6364,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>99</v>
@@ -6381,29 +6397,29 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912CCFBE-FF25-4E81-B6E7-DB3FD7BFAEC6}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K32" sqref="K32"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.5546875" style="43" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="92.77734375" style="9" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" style="9" customWidth="1"/>
-    <col min="7" max="7" width="30.5546875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.21875" style="24" customWidth="1"/>
-    <col min="9" max="9" width="25.77734375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="18.5546875" style="46" customWidth="1"/>
-    <col min="11" max="16384" width="8.77734375" style="9"/>
+    <col min="1" max="1" width="18.453125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="43" customWidth="1"/>
+    <col min="3" max="3" width="30.54296875" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="92.81640625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="34.54296875" style="9" customWidth="1"/>
+    <col min="7" max="7" width="30.54296875" style="9" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" style="24" customWidth="1"/>
+    <col min="9" max="9" width="25.81640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" style="46" customWidth="1"/>
+    <col min="11" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="102.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6417,7 +6433,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>130</v>
@@ -6437,8 +6453,11 @@
       <c r="K1" s="9" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" s="15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="13" x14ac:dyDescent="0.35">
       <c r="A2" s="14" t="s">
         <v>100</v>
       </c>
@@ -6455,7 +6474,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="B3" s="4" t="s">
         <v>101</v>
@@ -6474,7 +6493,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="4" t="s">
         <v>102</v>
@@ -6493,7 +6512,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="4" t="s">
         <v>103</v>
@@ -6514,7 +6533,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="10"/>
       <c r="B6" s="4" t="s">
         <v>128</v>
@@ -6533,7 +6552,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="4" t="s">
         <v>210</v>
@@ -6552,7 +6571,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="25" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="4" t="s">
         <v>104</v>
@@ -6571,7 +6590,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="4" t="s">
         <v>105</v>
@@ -6588,7 +6607,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="34.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="34.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="4" t="s">
         <v>106</v>
@@ -6607,7 +6626,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10"/>
       <c r="B11" s="4" t="s">
         <v>107</v>
@@ -6626,7 +6645,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="4" t="s">
         <v>108</v>
@@ -6645,7 +6664,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="4" t="s">
         <v>109</v>
@@ -6664,7 +6683,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="56" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="56" customFormat="1" ht="13" x14ac:dyDescent="0.35">
       <c r="A14" s="55"/>
       <c r="B14" s="4" t="s">
         <v>110</v>
@@ -6685,7 +6704,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="4" t="s">
         <v>124</v>
@@ -6702,7 +6721,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="23.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="4" t="s">
         <v>123</v>
@@ -6719,7 +6738,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="4" t="s">
         <v>111</v>
@@ -6736,7 +6755,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="6" t="s">
         <v>112</v>
@@ -6755,7 +6774,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="74" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" s="74" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="75"/>
       <c r="B19" s="71" t="s">
         <v>113</v>
@@ -6778,7 +6797,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="74" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" s="74" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="75"/>
       <c r="B20" s="77"/>
       <c r="C20" s="88"/>
@@ -6795,7 +6814,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="23"/>
       <c r="C21" s="29" t="s">
@@ -6816,7 +6835,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="4" t="s">
         <v>114</v>
@@ -6835,7 +6854,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="4" t="s">
         <v>115</v>
@@ -6854,7 +6873,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.35">
       <c r="A24" s="24"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -6871,7 +6890,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
@@ -6889,7 +6908,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="95" customFormat="1" ht="42.45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" s="95" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="93"/>
       <c r="C26" s="93"/>
       <c r="D26" s="93" t="s">
@@ -6907,7 +6926,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="39" x14ac:dyDescent="0.35">
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
@@ -6925,7 +6944,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="95" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" s="95" customFormat="1" ht="51.5" x14ac:dyDescent="0.35">
       <c r="B28" s="93"/>
       <c r="C28" s="93"/>
       <c r="D28" s="93" t="s">
@@ -6943,7 +6962,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
@@ -6961,7 +6980,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="95" customFormat="1" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" s="95" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="93"/>
       <c r="C30" s="93"/>
       <c r="D30" s="93" t="s">
@@ -6979,7 +6998,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -6995,7 +7014,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="95" customFormat="1" ht="66" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" s="95" customFormat="1" ht="62.5" x14ac:dyDescent="0.35">
       <c r="B32" s="93"/>
       <c r="C32" s="93"/>
       <c r="D32" s="93" t="s">
@@ -7028,16 +7047,16 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="58" customWidth="1"/>
-    <col min="2" max="2" width="56.77734375" style="58" customWidth="1"/>
-    <col min="3" max="3" width="22.21875" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.77734375" style="58" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="58"/>
+    <col min="2" max="2" width="56.81640625" style="58" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" style="58" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="122" t="s">
         <v>259</v>
       </c>
@@ -7045,7 +7064,7 @@
       <c r="C1" s="122"/>
       <c r="D1" s="122"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
         <v>256</v>
       </c>
@@ -7101,7 +7120,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="25" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>140</v>
       </c>
@@ -7125,7 +7144,7 @@
       <c r="C7" s="62"/>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:10" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A8" s="7"/>
       <c r="B8" s="4" t="s">
         <v>239</v>
@@ -7139,7 +7158,7 @@
       <c r="H8" s="24"/>
       <c r="J8" s="24"/>
     </row>
-    <row r="9" spans="1:10" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
       <c r="B9" s="7" t="s">
         <v>242</v>
@@ -7153,7 +7172,7 @@
       <c r="H9" s="24"/>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:10" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
       <c r="B10" s="7" t="s">
         <v>241</v>
@@ -7167,7 +7186,7 @@
       <c r="H10" s="24"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="1:10" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
       <c r="B11" s="7" t="s">
         <v>244</v>
@@ -7181,7 +7200,7 @@
       <c r="H11" s="24"/>
       <c r="J11" s="24"/>
     </row>
-    <row r="12" spans="1:10" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
       <c r="B12" s="7" t="s">
         <v>243</v>
@@ -7195,7 +7214,7 @@
       <c r="H12" s="24"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:10" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
       <c r="B13" s="7" t="s">
         <v>245</v>
@@ -7209,7 +7228,7 @@
       <c r="H13" s="24"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:10" s="9" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
       <c r="B14" s="7" t="s">
         <v>240</v>
@@ -7223,7 +7242,7 @@
       <c r="H14" s="24"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:10" s="64" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="64" customFormat="1" ht="25" x14ac:dyDescent="0.25">
       <c r="A15" s="65" t="s">
         <v>116</v>
       </c>
@@ -7262,14 +7281,14 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="67" t="s">
         <v>268</v>
       </c>

--- a/dashboard/online_help/management/dataset/Radiant_2025.1_help_assignments_v3_copy.xlsx
+++ b/dashboard/online_help/management/dataset/Radiant_2025.1_help_assignments_v3_copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://latticesemiconductor4-my.sharepoint.com/personal/jonathan_bunquin_latticesemi_com/Documents/Documents/GitHub/help_dashboard_django/dashboard/online_help/management/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{28E7C28E-CBAD-417D-9B99-6FE99D8518F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE329C26-3AF7-4E0D-B189-7A1FDDEDE7F2}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{28E7C28E-CBAD-417D-9B99-6FE99D8518F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C706BF75-A13F-4230-AECC-8841A6D30A5E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="601" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="online_help_user_guides" sheetId="1" r:id="rId1"/>
@@ -2736,9 +2736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
@@ -4917,7 +4917,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="75" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A107" s="10"/>
       <c r="B107" s="12" t="s">
         <v>63</v>
@@ -6399,7 +6399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912CCFBE-FF25-4E81-B6E7-DB3FD7BFAEC6}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>

--- a/dashboard/online_help/management/dataset/Radiant_2025.1_help_assignments_v3_copy.xlsx
+++ b/dashboard/online_help/management/dataset/Radiant_2025.1_help_assignments_v3_copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://latticesemiconductor4-my.sharepoint.com/personal/jonathan_bunquin_latticesemi_com/Documents/Documents/GitHub/help_dashboard_django/dashboard/online_help/management/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{28E7C28E-CBAD-417D-9B99-6FE99D8518F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C706BF75-A13F-4230-AECC-8841A6D30A5E}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{28E7C28E-CBAD-417D-9B99-6FE99D8518F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC2A8ADC-B44B-45E4-B841-B2BC41CC61EF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="298">
   <si>
     <t>Radiant Documentation</t>
   </si>
@@ -2737,8 +2737,8 @@
   <dimension ref="A1:L122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
@@ -5268,7 +5268,7 @@
   <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -6399,9 +6399,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912CCFBE-FF25-4E81-B6E7-DB3FD7BFAEC6}">
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
@@ -6816,7 +6816,9 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="23" t="s">
+        <v>113</v>
+      </c>
       <c r="C21" s="29" t="s">
         <v>225</v>
       </c>
@@ -6875,7 +6877,9 @@
     </row>
     <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.35">
       <c r="A24" s="24"/>
-      <c r="B24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="109" t="s">
@@ -6891,7 +6895,9 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7" t="s">
         <v>116</v>
@@ -6909,7 +6915,9 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="95" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="93"/>
+      <c r="B26" s="93" t="s">
+        <v>115</v>
+      </c>
       <c r="C26" s="93"/>
       <c r="D26" s="93" t="s">
         <v>140</v>
@@ -6927,7 +6935,9 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="39" x14ac:dyDescent="0.35">
-      <c r="B27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7" t="s">
         <v>247</v>
@@ -6945,7 +6955,9 @@
       </c>
     </row>
     <row r="28" spans="1:11" s="95" customFormat="1" ht="51.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="93"/>
+      <c r="B28" s="93" t="s">
+        <v>115</v>
+      </c>
       <c r="C28" s="93"/>
       <c r="D28" s="93" t="s">
         <v>116</v>
@@ -6963,7 +6975,9 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7" t="s">
         <v>132</v>
@@ -6981,7 +6995,9 @@
       </c>
     </row>
     <row r="30" spans="1:11" s="95" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="93"/>
+      <c r="B30" s="93" t="s">
+        <v>115</v>
+      </c>
       <c r="C30" s="93"/>
       <c r="D30" s="93" t="s">
         <v>140</v>
@@ -6999,7 +7015,9 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="110" t="s">
@@ -7015,7 +7033,9 @@
       </c>
     </row>
     <row r="32" spans="1:11" s="95" customFormat="1" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="93"/>
+      <c r="B32" s="93" t="s">
+        <v>115</v>
+      </c>
       <c r="C32" s="93"/>
       <c r="D32" s="93" t="s">
         <v>275</v>

--- a/dashboard/online_help/management/dataset/Radiant_2025.1_help_assignments_v3_copy.xlsx
+++ b/dashboard/online_help/management/dataset/Radiant_2025.1_help_assignments_v3_copy.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://latticesemiconductor4-my.sharepoint.com/personal/jonathan_bunquin_latticesemi_com/Documents/Documents/GitHub/help_dashboard_django/dashboard/online_help/management/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{28E7C28E-CBAD-417D-9B99-6FE99D8518F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC2A8ADC-B44B-45E4-B841-B2BC41CC61EF}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{28E7C28E-CBAD-417D-9B99-6FE99D8518F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CF31AE7-B9FA-45C3-A90A-D38DFC1118FD}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="online_help_user_guides" sheetId="1" r:id="rId1"/>
     <sheet name="online_help_reference" sheetId="5" r:id="rId2"/>
     <sheet name="Standalone_tools_online" sheetId="7" r:id="rId3"/>
     <sheet name="pdf_documents" sheetId="6" r:id="rId4"/>
-    <sheet name="New docs" sheetId="2" r:id="rId5"/>
-    <sheet name="ECNs" sheetId="3" r:id="rId6"/>
+    <sheet name="radiant_docu" sheetId="8" r:id="rId5"/>
+    <sheet name="New docs" sheetId="2" r:id="rId6"/>
+    <sheet name="ECNs" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">online_help_reference!$D$1:$D$43</definedName>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="300">
   <si>
     <t>Radiant Documentation</t>
   </si>
@@ -1636,6 +1637,12 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>Online Help Reference</t>
+  </si>
+  <si>
+    <t>Standalone Tools</t>
   </si>
 </sst>
 </file>
@@ -2736,7 +2743,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -7060,6 +7067,46 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13D86A2-B61F-40FD-AEDE-2BA08EAA4881}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J16"/>
   <sheetViews>
@@ -7293,7 +7340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>

--- a/dashboard/online_help/management/dataset/Radiant_2025.1_help_assignments_v3_copy.xlsx
+++ b/dashboard/online_help/management/dataset/Radiant_2025.1_help_assignments_v3_copy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://latticesemiconductor4-my.sharepoint.com/personal/jonathan_bunquin_latticesemi_com/Documents/Documents/GitHub/help_dashboard_django/dashboard/online_help/management/dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbunqui\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{28E7C28E-CBAD-417D-9B99-6FE99D8518F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0CF31AE7-B9FA-45C3-A90A-D38DFC1118FD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CE50B6-F27D-4933-933C-D230C28C7475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="601" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="online_help_user_guides" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,13 @@
     <sheet name="ECNs" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">online_help_reference!$D$1:$D$43</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">online_help_user_guides!$D$1:$D$122</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pdf_documents!$D$1:$D$23</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Standalone_tools_online!$D$1:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">online_help_reference!$D$1:$D$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">online_help_user_guides!$D$1:$D$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">pdf_documents!$D$1:$D$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Standalone_tools_online!$D$1:$D$5</definedName>
     <definedName name="_Hlk95147257" localSheetId="1">online_help_reference!#REF!</definedName>
     <definedName name="_Hlk95147257" localSheetId="0">online_help_user_guides!#REF!</definedName>
-    <definedName name="_Hlk95147257" localSheetId="3">pdf_documents!$E$18</definedName>
+    <definedName name="_Hlk95147257" localSheetId="3">pdf_documents!$E$17</definedName>
     <definedName name="_Hlk95147257" localSheetId="2">Standalone_tools_online!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="300">
   <si>
     <t>Radiant Documentation</t>
   </si>
@@ -1824,7 +1824,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1973,17 +1973,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -2007,7 +1996,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2060,35 +2049,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2110,9 +2076,6 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2158,12 +2121,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2173,13 +2130,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2266,7 +2217,7 @@
     <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2367,7 +2318,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2438,10 +2389,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2741,25 +2688,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L122"/>
+  <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A116" sqref="A116:A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="36" customWidth="1"/>
     <col min="3" max="3" width="30.54296875" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.453125" style="9" customWidth="1"/>
     <col min="5" max="5" width="92.81640625" style="9" customWidth="1"/>
     <col min="6" max="6" width="34.54296875" style="9" customWidth="1"/>
     <col min="7" max="7" width="30.54296875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.1796875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" style="19" customWidth="1"/>
     <col min="9" max="9" width="25.81640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" style="46" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" style="39" customWidth="1"/>
     <col min="11" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
@@ -2801,92 +2748,111 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="20" customFormat="1" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:12" s="74" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="68"/>
-      <c r="B3" s="112" t="s">
+    <row r="2" spans="1:12" s="63" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C2" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="114" t="s">
+      <c r="D2" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="115" t="s">
+      <c r="E2" s="104" t="s">
         <v>227</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74" t="s">
+      <c r="F2" s="58"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="74" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="112" t="s">
+    <row r="3" spans="1:12" s="63" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="C3" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D3" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="E4" s="117" t="s">
+      <c r="E3" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="73"/>
-      <c r="K4" s="74" t="s">
+      <c r="F3" s="60"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="74" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="75"/>
-      <c r="B5" s="112" t="s">
+    <row r="4" spans="1:12" s="63" customFormat="1" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="116" t="s">
+      <c r="C4" s="105" t="s">
         <v>142</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D4" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="E5" s="117" t="s">
+      <c r="E4" s="106" t="s">
         <v>228</v>
       </c>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="72"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="74" t="s">
+      <c r="F4" s="60"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="63" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+    <row r="5" spans="1:12" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -2899,13 +2865,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:12" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>144</v>
+      <c r="C7" s="110" t="s">
+        <v>145</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -2918,15 +2886,19 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="121" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
@@ -2938,12 +2910,14 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>11</v>
+        <v>146</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>116</v>
@@ -2959,16 +2933,16 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+      <c r="A10" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
@@ -2980,12 +2954,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
+      <c r="A11" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B11" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -2999,12 +2975,14 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
+      <c r="A12" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -3018,12 +2996,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="A13" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -3037,12 +3017,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+      <c r="A14" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -3055,15 +3037,19 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:12" ht="54.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="D15" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
@@ -3074,16 +3060,18 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="54.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B16" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -3095,17 +3083,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>132</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
@@ -3116,56 +3104,64 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D18" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="8"/>
       <c r="K18" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
+    <row r="19" spans="1:11" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="13"/>
+      <c r="I19" s="7"/>
       <c r="J19" s="8"/>
       <c r="K19" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
+    <row r="20" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
@@ -3178,16 +3174,16 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
+      <c r="A21" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B21" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="D21" s="6"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="7"/>
@@ -3198,15 +3194,19 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:11" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
@@ -3217,17 +3217,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="7"/>
@@ -3238,61 +3238,69 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6" t="s">
+    <row r="24" spans="1:11" s="84" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="95" customFormat="1" ht="166.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="89"/>
-      <c r="B25" s="106" t="s">
+      <c r="C24" s="107" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="108" t="s">
+        <v>238</v>
+      </c>
+      <c r="E24" s="108" t="s">
+        <v>283</v>
+      </c>
+      <c r="F24" s="108" t="s">
+        <v>229</v>
+      </c>
+      <c r="G24" s="82"/>
+      <c r="H24" s="82"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="83"/>
+      <c r="K24" s="84" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C25" s="118" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="119" t="s">
-        <v>238</v>
-      </c>
-      <c r="E25" s="119" t="s">
-        <v>283</v>
-      </c>
-      <c r="F25" s="119" t="s">
-        <v>229</v>
-      </c>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="95" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
-      <c r="B26" s="12" t="s">
+      <c r="C25" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="C26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -3301,13 +3309,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>116</v>
@@ -3322,19 +3332,21 @@
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
+    <row r="28" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B28" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -3344,39 +3356,45 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A29" s="10"/>
+      <c r="A29" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B29" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>156</v>
+        <v>20</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
+      <c r="J29" s="4"/>
       <c r="K29" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
+    <row r="30" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>20</v>
+      <c r="C30" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>229</v>
+      </c>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -3385,40 +3403,40 @@
         <v>293</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="56.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
-      <c r="B31" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>21</v>
+    <row r="31" spans="1:11" ht="20.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="E31" s="4"/>
-      <c r="F31" s="4" t="s">
-        <v>229</v>
-      </c>
+      <c r="F31" s="4"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="4"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
       <c r="K31" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="24"/>
+      <c r="A32" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B32" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="D32" s="6"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="7"/>
@@ -3430,12 +3448,14 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="20.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="24"/>
+      <c r="A33" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="4"/>
@@ -3449,12 +3469,14 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="20.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="24"/>
+      <c r="A34" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B34" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="4"/>
@@ -3467,17 +3489,23 @@
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="20.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="24"/>
+    <row r="35" spans="1:11" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B35" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D35" s="6"/>
+        <v>160</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
+      <c r="F35" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
       <c r="I35" s="8"/>
@@ -3486,103 +3514,111 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="24"/>
+    <row r="36" spans="1:11" s="22" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B36" s="12" t="s">
         <v>22</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E36" s="4"/>
+      <c r="E36" s="20"/>
       <c r="F36" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
+        <v>135</v>
+      </c>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
       <c r="K36" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="28" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="25"/>
+    <row r="37" spans="1:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B37" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>161</v>
+        <v>23</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E37" s="26"/>
-      <c r="F37" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="26"/>
       <c r="K37" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="10"/>
+    <row r="38" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B38" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>11</v>
+      <c r="C38" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="32"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="8"/>
       <c r="K38" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="10"/>
+    <row r="39" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B39" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E39" s="4"/>
-      <c r="F39" s="4" t="s">
-        <v>206</v>
-      </c>
+      <c r="F39" s="4"/>
       <c r="G39" s="7"/>
-      <c r="H39" s="13"/>
+      <c r="H39" s="7"/>
       <c r="I39" s="13"/>
       <c r="J39" s="8"/>
       <c r="K39" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
+    <row r="40" spans="1:11" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B40" s="12" t="s">
         <v>23</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>116</v>
@@ -3597,40 +3633,44 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="10"/>
-      <c r="B41" s="12" t="s">
-        <v>23</v>
+    <row r="41" spans="1:11" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
-      <c r="I41" s="13"/>
+      <c r="I41" s="7"/>
       <c r="J41" s="8"/>
       <c r="K41" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="10"/>
+    <row r="42" spans="1:11" ht="26.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B42" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E42" s="24"/>
-      <c r="F42" s="7"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
       <c r="I42" s="7"/>
@@ -3639,13 +3679,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="26.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="10"/>
+    <row r="43" spans="1:11" ht="46.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B43" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="D43" s="4" t="s">
         <v>116</v>
@@ -3660,17 +3702,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="46.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="10"/>
+    <row r="44" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B44" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="C44" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="7"/>
@@ -3681,208 +3723,230 @@
         <v>293</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="10"/>
+    <row r="45" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B45" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>219</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="10"/>
+    <row r="46" spans="1:11" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B46" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
+      <c r="C46" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="28"/>
       <c r="K46" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="33"/>
+    <row r="47" spans="1:11" s="30" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B47" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="34" t="s">
-        <v>164</v>
+      <c r="C47" s="27" t="s">
+        <v>165</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="35"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="29"/>
+      <c r="I47" s="29"/>
+      <c r="J47" s="28"/>
       <c r="K47" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="37" customFormat="1" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="33"/>
+    <row r="48" spans="1:11" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B48" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="34" t="s">
-        <v>165</v>
+      <c r="C48" s="27" t="s">
+        <v>166</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="36"/>
-      <c r="H48" s="36"/>
-      <c r="I48" s="36"/>
-      <c r="J48" s="35"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="28"/>
       <c r="K48" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="37" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="33"/>
+    <row r="49" spans="1:11" s="30" customFormat="1" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B49" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="34" t="s">
-        <v>166</v>
+      <c r="C49" s="27" t="s">
+        <v>120</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="35"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="28"/>
       <c r="K49" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="37" customFormat="1" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="33"/>
-      <c r="B50" s="6" t="s">
+    <row r="50" spans="1:11" s="72" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D50" s="4" t="s">
+      <c r="C50" s="69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E50" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="F50" s="70" t="s">
+        <v>234</v>
+      </c>
+      <c r="G50" s="71"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="71"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="72" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A51" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" s="84" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" s="79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" s="83" customFormat="1" ht="129" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="78"/>
-      <c r="B51" s="79" t="s">
+      <c r="E52" s="81" t="s">
+        <v>269</v>
+      </c>
+      <c r="F52" s="81"/>
+      <c r="G52" s="82"/>
+      <c r="H52" s="82"/>
+      <c r="I52" s="82"/>
+      <c r="J52" s="83"/>
+      <c r="K52" s="84" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="80" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="E51" s="69" t="s">
-        <v>284</v>
-      </c>
-      <c r="F51" s="81" t="s">
-        <v>234</v>
-      </c>
-      <c r="G51" s="82"/>
-      <c r="H51" s="82"/>
-      <c r="I51" s="82"/>
-      <c r="J51" s="81"/>
-      <c r="K51" s="83" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A52" s="10"/>
-      <c r="B52" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" s="95" customFormat="1" ht="94" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="89"/>
-      <c r="B53" s="90" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="92" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" s="92" t="s">
-        <v>269</v>
-      </c>
-      <c r="F53" s="92"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="93"/>
-      <c r="I53" s="93"/>
-      <c r="J53" s="94"/>
-      <c r="K53" s="95" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="10"/>
+      <c r="C53" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B54" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="D54" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="7"/>
@@ -3893,17 +3957,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="10"/>
+    <row r="55" spans="1:11" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B55" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>116</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="D55" s="6"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="7"/>
@@ -3915,12 +3979,14 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="10"/>
+      <c r="A56" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B56" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="6"/>
       <c r="E56" s="4"/>
@@ -3933,36 +3999,40 @@
         <v>293</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="24.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="10"/>
-      <c r="B57" s="12" t="s">
-        <v>26</v>
+    <row r="57" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
+      <c r="I57" s="13"/>
       <c r="J57" s="8"/>
       <c r="K57" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="10"/>
+    <row r="58" spans="1:11" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B58" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="7"/>
@@ -3973,16 +4043,19 @@
         <v>293</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="10"/>
+    <row r="59" spans="1:11" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B59" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="F59" s="4"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
@@ -3992,17 +4065,20 @@
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="23.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="10"/>
+    <row r="60" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A60" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B60" s="6" t="s">
         <v>32</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>116</v>
       </c>
+      <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -4012,16 +4088,18 @@
         <v>293</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" s="10"/>
+    <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B61" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>116</v>
+      <c r="C61" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>140</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -4034,16 +4112,13 @@
       </c>
     </row>
     <row r="62" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="10"/>
+      <c r="A62" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B62" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C62" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>140</v>
-      </c>
+      <c r="C62" s="23"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="7"/>
@@ -4054,12 +4129,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="10"/>
+    <row r="63" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A63" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B63" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="29"/>
+      <c r="C63" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="7"/>
@@ -4070,120 +4150,136 @@
         <v>293</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="10"/>
-      <c r="B64" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="8"/>
+    <row r="64" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A64" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E64" s="19"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="26"/>
       <c r="K64" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A65" s="10"/>
+      <c r="A65" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B65" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C65" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
+        <v>37</v>
+      </c>
+      <c r="C65" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="4"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="26"/>
       <c r="K65" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" s="10"/>
+    <row r="66" spans="1:11" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B66" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="4"/>
+      <c r="C66" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="E66" s="7"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="32"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="24"/>
+      <c r="J66" s="26"/>
       <c r="K66" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="10"/>
+    <row r="67" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A67" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B67" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C67" s="29" t="s">
-        <v>121</v>
+      <c r="C67" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="30"/>
-      <c r="J67" s="32"/>
+        <v>116</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="8"/>
       <c r="K67" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A68" s="10"/>
+    <row r="68" spans="1:11" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B68" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E68" s="1"/>
-      <c r="F68" s="23"/>
+        <v>171</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
-      <c r="I68" s="7"/>
+      <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="10"/>
+    <row r="69" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B69" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D69" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
+        <v>133</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" s="4"/>
+      <c r="F69" s="18" t="s">
+        <v>139</v>
+      </c>
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
       <c r="I69" s="8"/>
@@ -4192,76 +4288,80 @@
         <v>293</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="10"/>
+    <row r="70" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A70" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B70" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E70" s="4"/>
-      <c r="F70" s="23" t="s">
-        <v>139</v>
-      </c>
+      <c r="C70" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
-      <c r="I70" s="8"/>
+      <c r="I70" s="7"/>
       <c r="J70" s="8"/>
       <c r="K70" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A71" s="10"/>
-      <c r="B71" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
+      <c r="A71" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
+      <c r="H71" s="13"/>
       <c r="I71" s="7"/>
       <c r="J71" s="8"/>
       <c r="K71" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A72" s="10"/>
+    <row r="72" spans="1:11" ht="68.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B72" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="13"/>
+      <c r="H72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="8"/>
       <c r="K72" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="68.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="10"/>
+    <row r="73" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A73" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B73" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
@@ -4274,13 +4374,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A74" s="10"/>
+    <row r="74" spans="1:11" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B74" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
@@ -4293,13 +4395,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="10"/>
+    <row r="75" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A75" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B75" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
@@ -4312,13 +4416,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="10"/>
+    <row r="76" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A76" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B76" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
@@ -4331,13 +4437,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A77" s="10"/>
+    <row r="77" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A77" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B77" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
@@ -4350,13 +4458,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="10"/>
+    <row r="78" spans="1:11" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B78" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
@@ -4369,13 +4479,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="36.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="10"/>
+    <row r="79" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A79" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B79" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
@@ -4388,13 +4500,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A80" s="10"/>
+    <row r="80" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A80" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B80" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>46</v>
+        <v>172</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
@@ -4407,120 +4521,132 @@
         <v>293</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="10"/>
-      <c r="B81" s="6" t="s">
+    <row r="81" spans="1:11" s="63" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B81" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
-      <c r="F81" s="4"/>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="I81" s="7"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="74" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="75"/>
-      <c r="B82" s="84" t="s">
+      <c r="C81" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="D81" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="94" t="s">
+        <v>272</v>
+      </c>
+      <c r="F81" s="58" t="s">
+        <v>231</v>
+      </c>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="62"/>
+      <c r="J81" s="62"/>
+      <c r="K81" s="63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C82" s="70" t="s">
-        <v>47</v>
-      </c>
-      <c r="D82" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="E82" s="105" t="s">
-        <v>272</v>
-      </c>
-      <c r="F82" s="69" t="s">
-        <v>231</v>
-      </c>
-      <c r="G82" s="72"/>
-      <c r="H82" s="72"/>
-      <c r="I82" s="73"/>
-      <c r="J82" s="73"/>
-      <c r="K82" s="74" t="s">
+      <c r="C82" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="8"/>
+      <c r="K82" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="63" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B83" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C83" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" s="58" t="s">
+        <v>223</v>
+      </c>
+      <c r="E83" s="58" t="s">
+        <v>281</v>
+      </c>
+      <c r="F83" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="G83" s="61"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
+      <c r="J83" s="62"/>
+      <c r="K83" s="63" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="10"/>
-      <c r="B83" s="12" t="s">
+    <row r="84" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B84" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
-      <c r="F83" s="4"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="I83" s="7"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="74" customFormat="1" ht="79" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="75"/>
-      <c r="B84" s="84" t="s">
-        <v>38</v>
-      </c>
-      <c r="C84" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" s="69" t="s">
-        <v>223</v>
-      </c>
-      <c r="E84" s="69" t="s">
-        <v>281</v>
-      </c>
-      <c r="F84" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="G84" s="72"/>
-      <c r="H84" s="72"/>
-      <c r="I84" s="72"/>
-      <c r="J84" s="73"/>
-      <c r="K84" s="74" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="10"/>
+      <c r="C84" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A85" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B85" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
-      <c r="I85" s="8"/>
+      <c r="I85" s="7"/>
       <c r="J85" s="8"/>
       <c r="K85" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A86" s="10"/>
+    <row r="86" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B86" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -4533,13 +4659,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="10"/>
+    <row r="87" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B87" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
@@ -4552,13 +4680,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="15.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="10"/>
+    <row r="88" spans="1:11" ht="41.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B88" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
@@ -4571,13 +4701,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="41.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="10"/>
+    <row r="89" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A89" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B89" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -4590,13 +4722,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A90" s="10"/>
+    <row r="90" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A90" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B90" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
@@ -4609,13 +4743,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A91" s="10"/>
+    <row r="91" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B91" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
@@ -4628,15 +4764,19 @@
         <v>293</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="10"/>
+    <row r="92" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B92" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D92" s="4"/>
+        <v>57</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>219</v>
+      </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="7"/>
@@ -4647,17 +4787,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="10"/>
+    <row r="93" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B93" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>219</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="7"/>
@@ -4668,13 +4808,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="10"/>
+    <row r="94" spans="1:11" ht="37.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B94" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
@@ -4688,12 +4830,14 @@
       </c>
     </row>
     <row r="95" spans="1:11" ht="37.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="10"/>
+      <c r="A95" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B95" s="12" t="s">
         <v>38</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
@@ -4706,15 +4850,16 @@
         <v>293</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="37.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="10"/>
+    <row r="96" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B96" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D96" s="4"/>
+      <c r="C96" s="9" t="s">
+        <v>138</v>
+      </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="7"/>
@@ -4725,470 +4870,518 @@
         <v>293</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="10"/>
-      <c r="B97" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C97" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="7"/>
+    <row r="97" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A97" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="31"/>
       <c r="H97" s="7"/>
-      <c r="I97" s="7"/>
+      <c r="I97" s="31"/>
       <c r="J97" s="8"/>
       <c r="K97" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A98" s="10"/>
-      <c r="B98" s="6" t="s">
-        <v>61</v>
-      </c>
+    <row r="98" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A98" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B98" s="12"/>
       <c r="C98" s="5" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D98" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="38"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="31"/>
       <c r="H98" s="7"/>
-      <c r="I98" s="38"/>
+      <c r="I98" s="32"/>
       <c r="J98" s="8"/>
       <c r="K98" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A99" s="10"/>
-      <c r="B99" s="12"/>
+    <row r="99" spans="1:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="C99" s="5" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E99" s="6"/>
+      <c r="E99" s="4"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="7"/>
-      <c r="I99" s="39"/>
-      <c r="J99" s="8"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
       <c r="K99" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="10"/>
+      <c r="A100" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B100" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D100" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D100" s="6"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
-      <c r="G100" s="40"/>
-      <c r="H100" s="40"/>
-      <c r="I100" s="40"/>
-      <c r="J100" s="40"/>
+      <c r="G100" s="34"/>
+      <c r="H100" s="34"/>
+      <c r="I100" s="34"/>
+      <c r="J100" s="34"/>
       <c r="K100" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="10"/>
+      <c r="A101" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B101" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-      <c r="I101" s="41"/>
-      <c r="J101" s="41"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="34"/>
+      <c r="J101" s="34"/>
       <c r="K101" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="10"/>
+      <c r="A102" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B102" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D102" s="6"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-      <c r="I102" s="41"/>
-      <c r="J102" s="41"/>
+      <c r="G102" s="34"/>
+      <c r="H102" s="34"/>
+      <c r="I102" s="34"/>
+      <c r="J102" s="34"/>
       <c r="K102" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="10"/>
+    <row r="103" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A103" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B103" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="D103" s="6"/>
+        <v>176</v>
+      </c>
+      <c r="D103" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
+      <c r="F103" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G103" s="34"/>
+      <c r="H103" s="34"/>
+      <c r="I103" s="34"/>
+      <c r="J103" s="34"/>
       <c r="K103" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" s="10"/>
+    <row r="104" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A104" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B104" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>176</v>
+        <v>64</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E104" s="4"/>
-      <c r="F104" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-      <c r="I104" s="41"/>
-      <c r="J104" s="41"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="34"/>
+      <c r="J104" s="34"/>
       <c r="K104" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A105" s="10"/>
+    <row r="105" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A105" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B105" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D105" s="6"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-      <c r="I105" s="41"/>
-      <c r="J105" s="41"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="34"/>
+      <c r="I105" s="34"/>
+      <c r="J105" s="34"/>
       <c r="K105" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A106" s="10"/>
+    <row r="106" spans="1:11" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B106" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D106" s="6"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
+      <c r="G106" s="34"/>
+      <c r="H106" s="34"/>
+      <c r="I106" s="34"/>
+      <c r="J106" s="34"/>
       <c r="K106" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="10"/>
+    <row r="107" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A107" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B107" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="D107" s="6"/>
+      <c r="C107" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" s="6" t="s">
+        <v>116</v>
+      </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-      <c r="I107" s="41"/>
-      <c r="J107" s="41"/>
+      <c r="G107" s="34"/>
+      <c r="H107" s="34"/>
+      <c r="I107" s="34"/>
+      <c r="J107" s="34"/>
       <c r="K107" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A108" s="10"/>
+      <c r="A108" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B108" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C108" s="42" t="s">
-        <v>65</v>
+      <c r="C108" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-      <c r="I108" s="41"/>
-      <c r="J108" s="41"/>
+      <c r="G108" s="34"/>
+      <c r="H108" s="34"/>
+      <c r="I108" s="34"/>
+      <c r="J108" s="34"/>
       <c r="K108" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A109" s="10"/>
+      <c r="A109" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B109" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
+      <c r="G109" s="34"/>
+      <c r="H109" s="36"/>
+      <c r="I109" s="34"/>
+      <c r="J109" s="34"/>
       <c r="K109" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A110" s="10"/>
+    <row r="110" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A110" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B110" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="36"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="34"/>
       <c r="K110" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A111" s="10"/>
+    <row r="111" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="10" t="s">
+        <v>8</v>
+      </c>
       <c r="B111" s="12" t="s">
         <v>63</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="43"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
+      <c r="G111" s="26"/>
+      <c r="H111" s="24"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="34"/>
       <c r="K111" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="10"/>
-      <c r="B112" s="12" t="s">
-        <v>63</v>
+    <row r="112" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="7"/>
+      <c r="I112" s="7"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" s="84" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B113" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="D113" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="E113" s="81" t="s">
+        <v>286</v>
+      </c>
+      <c r="F113" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="G113" s="82"/>
+      <c r="H113" s="96"/>
+      <c r="I113" s="82"/>
+      <c r="J113" s="83"/>
+      <c r="K113" s="84" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" s="63" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="B115" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115" s="59" t="s">
+        <v>73</v>
+      </c>
+      <c r="D115" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="E115" s="58" t="s">
+        <v>285</v>
+      </c>
+      <c r="F115" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="G115" s="61"/>
+      <c r="H115" s="61"/>
+      <c r="I115" s="61"/>
+      <c r="J115" s="62"/>
+      <c r="K115" s="63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="31.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="H116" s="9"/>
+      <c r="J116" s="37"/>
+      <c r="K116" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A117" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B117" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="32"/>
-      <c r="H112" s="30"/>
-      <c r="I112" s="41"/>
-      <c r="J112" s="41"/>
-      <c r="K112" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="103" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="10"/>
-      <c r="B113" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C113" s="5" t="s">
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="38"/>
+      <c r="K117" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A118" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D113" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
-      <c r="I113" s="7"/>
-      <c r="J113" s="8"/>
-      <c r="K113" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" s="95" customFormat="1" ht="178.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="89"/>
-      <c r="B114" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="C114" s="91" t="s">
-        <v>71</v>
-      </c>
-      <c r="D114" s="92" t="s">
-        <v>140</v>
-      </c>
-      <c r="E114" s="92" t="s">
-        <v>286</v>
-      </c>
-      <c r="F114" s="92" t="s">
-        <v>137</v>
-      </c>
-      <c r="G114" s="93"/>
-      <c r="H114" s="107"/>
-      <c r="I114" s="93"/>
-      <c r="J114" s="94"/>
-      <c r="K114" s="95" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="10"/>
-      <c r="B115" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C115" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D115" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
-      <c r="I115" s="7"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" s="74" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="75"/>
-      <c r="B116" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="C116" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="D116" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="E116" s="69" t="s">
-        <v>285</v>
-      </c>
-      <c r="F116" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="G116" s="72"/>
-      <c r="H116" s="72"/>
-      <c r="I116" s="72"/>
-      <c r="J116" s="73"/>
-      <c r="K116" s="74" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" ht="31.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="24"/>
-      <c r="B117" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D117" s="4"/>
-      <c r="E117" s="4"/>
-      <c r="F117" s="4"/>
-      <c r="H117" s="9"/>
-      <c r="J117" s="44"/>
-      <c r="K117" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B118" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="H118" s="45"/>
-      <c r="I118" s="45"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="7"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="4"/>
       <c r="K118" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A119" s="10"/>
+      <c r="A119" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="B119" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
-      <c r="G119" s="47"/>
+      <c r="G119" s="40"/>
       <c r="H119" s="7"/>
       <c r="I119" s="13"/>
       <c r="J119" s="4"/>
@@ -5197,17 +5390,19 @@
       </c>
     </row>
     <row r="120" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A120" s="10"/>
+      <c r="A120" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="B120" s="4" t="s">
         <v>75</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
-      <c r="G120" s="47"/>
+      <c r="G120" s="40"/>
       <c r="H120" s="7"/>
       <c r="I120" s="13"/>
       <c r="J120" s="4"/>
@@ -5216,53 +5411,36 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A121" s="10"/>
+      <c r="A121" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="B121" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D121" s="4"/>
-      <c r="E121" s="4"/>
-      <c r="F121" s="4"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="7"/>
-      <c r="I121" s="13"/>
-      <c r="J121" s="4"/>
+      <c r="C121" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="6"/>
       <c r="K121" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="122" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A122" s="10"/>
-      <c r="B122" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C122" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="D122" s="6"/>
-      <c r="E122" s="6"/>
-      <c r="F122" s="6"/>
-      <c r="G122" s="48"/>
-      <c r="H122" s="38"/>
-      <c r="I122" s="39"/>
-      <c r="J122" s="6"/>
-      <c r="K122" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D122" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="I69:I70 J119:J122">
+  <autoFilter ref="D1:D121" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="I68:I69 J118:J121">
     <cfRule type="timePeriod" dxfId="4" priority="3" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I69,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(I69,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+      <formula>AND(TODAY()-ROUNDDOWN(I68,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(I68,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J69:J71 I82:J82 I85:J85 J100:J103 J113:J117">
+  <conditionalFormatting sqref="J68:J70 I81:J81 I84:J84 J99:J102 J112:J116">
     <cfRule type="timePeriod" dxfId="3" priority="2" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I69,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(I69,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+      <formula>AND(TODAY()-ROUNDDOWN(I68,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(I68,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5272,25 +5450,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C157076-448F-48C3-BEDC-072DE93C7405}">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="36" customWidth="1"/>
     <col min="3" max="3" width="30.54296875" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.453125" style="9" customWidth="1"/>
     <col min="5" max="5" width="92.81640625" style="9" customWidth="1"/>
     <col min="6" max="6" width="34.54296875" style="9" customWidth="1"/>
     <col min="7" max="7" width="30.54296875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.1796875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" style="19" customWidth="1"/>
     <col min="9" max="9" width="25.81640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" style="46" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" style="39" customWidth="1"/>
     <col min="11" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
@@ -5332,328 +5510,369 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="26" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="B2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B3" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>116</v>
-      </c>
+      <c r="C3" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="6"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="41"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="34"/>
       <c r="K3" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B4" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="41"/>
+        <v>80</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="12"/>
       <c r="K4" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B5" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="12"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="4"/>
       <c r="K5" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B6" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>81</v>
-      </c>
+      <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
         <v>116</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>233</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
-      <c r="I6" s="52"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="4"/>
       <c r="K6" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+    <row r="7" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B7" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="D7" s="6" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="4"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:12" ht="132.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B8" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="51"/>
+      <c r="F8" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="42"/>
       <c r="J8" s="12"/>
       <c r="K8" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="132.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B9" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>209</v>
+        <v>140</v>
       </c>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="51"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="12"/>
       <c r="K9" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B10" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="51"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="42"/>
       <c r="J10" s="12"/>
       <c r="K10" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B11" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="51"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="12"/>
       <c r="K11" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B12" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>140</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="43"/>
-      <c r="I12" s="51"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="42"/>
       <c r="J12" s="12"/>
       <c r="K12" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="25" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+      <c r="A13" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B13" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>140</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D13" s="6"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="51"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="12"/>
       <c r="K13" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B14" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="51"/>
+        <v>84</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="42"/>
       <c r="J14" s="12"/>
       <c r="K14" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B15" s="12" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="12"/>
+        <v>140</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
-      <c r="B16" s="12" t="s">
-        <v>79</v>
+    <row r="16" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="23"/>
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="15"/>
       <c r="F16" s="4"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="13" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>11</v>
+        <v>185</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="7"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="36"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="8"/>
@@ -5661,22 +5880,24 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="22.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
+    <row r="18" spans="1:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>86</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="G18" s="43"/>
+        <v>186</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="36"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="8"/>
@@ -5684,76 +5905,82 @@
         <v>293</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="4" t="s">
-        <v>86</v>
+    <row r="19" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>186</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" s="53"/>
-      <c r="F19" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G19" s="43"/>
+        <v>116</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="8"/>
       <c r="K19" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12" t="s">
-        <v>187</v>
-      </c>
+    <row r="20" spans="1:11" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="12"/>
       <c r="C20" s="5" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="13"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="12"/>
+    <row r="21" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>89</v>
+      </c>
       <c r="C21" s="5" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="8"/>
       <c r="K21" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B22" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>116</v>
@@ -5761,26 +5988,28 @@
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
       <c r="J22" s="8"/>
       <c r="K22" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="25" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
+    <row r="23" spans="1:11" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B23" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>116</v>
+        <v>211</v>
       </c>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="4"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -5789,37 +6018,41 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="45.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="10"/>
+    <row r="24" spans="1:11" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B24" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="E24" s="6"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:11" ht="70" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B25" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>132</v>
+        <v>213</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="4"/>
@@ -5831,16 +6064,18 @@
         <v>293</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="70" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="10"/>
+    <row r="26" spans="1:11" ht="49" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B26" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="4"/>
@@ -5852,16 +6087,18 @@
         <v>293</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="10"/>
+    <row r="27" spans="1:11" ht="34.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B27" s="6" t="s">
         <v>89</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>126</v>
+        <v>192</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="4"/>
@@ -5873,67 +6110,71 @@
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="34.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="10"/>
-      <c r="B28" s="6" t="s">
+    <row r="28" spans="1:11" s="93" customFormat="1" ht="25" x14ac:dyDescent="0.35">
+      <c r="A28" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="86" t="s">
         <v>89</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="87" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" s="97" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="104" customFormat="1" ht="25" x14ac:dyDescent="0.35">
-      <c r="A29" s="96"/>
-      <c r="B29" s="97" t="s">
+      <c r="E28" s="100" t="s">
+        <v>278</v>
+      </c>
+      <c r="F28" s="88" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="93" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="98" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="108" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="111" t="s">
-        <v>278</v>
-      </c>
-      <c r="F29" s="99" t="s">
-        <v>203</v>
-      </c>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="104" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="10"/>
+      <c r="C29" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B30" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>116</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D30" s="6"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="7" t="s">
-        <v>235</v>
-      </c>
+      <c r="F30" s="7"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -5943,12 +6184,14 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="10"/>
+      <c r="A31" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B31" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -5962,12 +6205,14 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="10"/>
-      <c r="B32" s="12" t="s">
-        <v>89</v>
+      <c r="A32" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -5981,12 +6226,14 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="10"/>
+      <c r="A33" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B33" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>11</v>
+        <v>196</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
@@ -5999,149 +6246,165 @@
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="10"/>
+    <row r="34" spans="1:11" ht="25" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B34" s="6" t="s">
         <v>90</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
       <c r="J34" s="8"/>
       <c r="K34" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="10"/>
-      <c r="B35" s="6" t="s">
+    <row r="35" spans="1:11" s="84" customFormat="1" ht="38.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" s="95" customFormat="1" ht="38.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="89"/>
-      <c r="B36" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="91" t="s">
+      <c r="C35" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="92" t="s">
+      <c r="D35" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="E36" s="92" t="s">
+      <c r="E35" s="81" t="s">
         <v>273</v>
       </c>
-      <c r="F36" s="92" t="s">
+      <c r="F35" s="81" t="s">
         <v>136</v>
       </c>
-      <c r="G36" s="93"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-      <c r="K36" s="95" t="s">
+      <c r="G35" s="82"/>
+      <c r="H35" s="96"/>
+      <c r="I35" s="83"/>
+      <c r="J35" s="83"/>
+      <c r="K35" s="84" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="50" x14ac:dyDescent="0.35">
-      <c r="A37" s="10"/>
-      <c r="B37" s="6" t="s">
+    <row r="36" spans="1:11" ht="50" x14ac:dyDescent="0.35">
+      <c r="A36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D36" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4" t="s">
+      <c r="E36" s="4"/>
+      <c r="F36" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" s="95" customFormat="1" ht="38.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="89"/>
-      <c r="B38" s="90" t="s">
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="84" customFormat="1" ht="38.5" x14ac:dyDescent="0.3">
+      <c r="A37" s="78" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C37" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="D38" s="92" t="s">
+      <c r="D37" s="81" t="s">
         <v>132</v>
       </c>
-      <c r="E38" s="92" t="s">
+      <c r="E37" s="81" t="s">
         <v>277</v>
       </c>
-      <c r="F38" s="120" t="s">
+      <c r="F37" s="109" t="s">
         <v>236</v>
       </c>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="94"/>
-      <c r="K38" s="95" t="s">
+      <c r="G37" s="82"/>
+      <c r="H37" s="82"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="83"/>
+      <c r="K37" s="84" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="104" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="96"/>
-      <c r="B39" s="97" t="s">
+    <row r="38" spans="1:11" s="93" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A38" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="98" t="s">
+      <c r="C38" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="D39" s="99" t="s">
+      <c r="D38" s="88" t="s">
         <v>116</v>
       </c>
-      <c r="E39" s="99" t="s">
+      <c r="E38" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="F39" s="100" t="s">
+      <c r="F38" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="104" t="s">
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="91"/>
+      <c r="J38" s="92"/>
+      <c r="K38" s="93" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="50" x14ac:dyDescent="0.35">
-      <c r="A40" s="10"/>
+    <row r="39" spans="1:11" ht="50" x14ac:dyDescent="0.35">
+      <c r="A39" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="58.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B40" s="12" t="s">
         <v>93</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>199</v>
+        <v>94</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>218</v>
@@ -6156,16 +6419,18 @@
         <v>293</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="58.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="10"/>
+    <row r="41" spans="1:11" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="B41" s="12" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -6177,62 +6442,43 @@
         <v>293</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="71.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="10"/>
-      <c r="B42" s="12" t="s">
+    <row r="42" spans="1:11" s="63" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="74" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="75"/>
-      <c r="B43" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="70" t="s">
+      <c r="C42" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="D43" s="69" t="s">
+      <c r="D42" s="58" t="s">
         <v>219</v>
       </c>
-      <c r="E43" s="74" t="s">
+      <c r="E42" s="63" t="s">
         <v>280</v>
       </c>
-      <c r="F43" s="69" t="s">
+      <c r="F42" s="58" t="s">
         <v>237</v>
       </c>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="86"/>
-      <c r="J43" s="73"/>
-      <c r="K43" s="74" t="s">
+      <c r="G42" s="61"/>
+      <c r="H42" s="61"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="63" t="s">
         <v>292</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D43" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="J2:J4">
+  <autoFilter ref="D1:D42" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="J2:J3">
     <cfRule type="timePeriod" dxfId="2" priority="3" timePeriod="lastWeek">
       <formula>AND(TODAY()-ROUNDDOWN(J2,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(J2,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J19">
+  <conditionalFormatting sqref="J16:J18">
     <cfRule type="timePeriod" dxfId="1" priority="2" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(J17,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(J17,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+      <formula>AND(TODAY()-ROUNDDOWN(J16,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(J16,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6242,25 +6488,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB41B00-6CF4-4E91-BF32-A0BD8AAB08F7}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="36" customWidth="1"/>
     <col min="3" max="3" width="30.54296875" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.453125" style="9" customWidth="1"/>
     <col min="5" max="5" width="92.81640625" style="9" customWidth="1"/>
     <col min="6" max="6" width="34.54296875" style="9" customWidth="1"/>
     <col min="7" max="7" width="30.54296875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.1796875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" style="19" customWidth="1"/>
     <col min="9" max="9" width="25.81640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" style="46" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" style="39" customWidth="1"/>
     <col min="11" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
@@ -6302,99 +6548,93 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="26" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:12" ht="25.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
+      <c r="B2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:12" ht="25.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="61.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>134</v>
+        <v>220</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="61.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+    <row r="4" spans="1:12" ht="122.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="B4" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
-        <v>220</v>
-      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="23"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="122.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+    <row r="5" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
       <c r="J5" s="4"/>
       <c r="K5" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
-      <c r="B6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D6" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="I4:J4">
+  <autoFilter ref="D1:D5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <conditionalFormatting sqref="I3:J3">
     <cfRule type="timePeriod" dxfId="0" priority="1" timePeriod="lastWeek">
-      <formula>AND(TODAY()-ROUNDDOWN(I4,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(I4,0)&lt;(WEEKDAY(TODAY())+7))</formula>
+      <formula>AND(TODAY()-ROUNDDOWN(I3,0)&gt;=(WEEKDAY(TODAY())),TODAY()-ROUNDDOWN(I3,0)&lt;(WEEKDAY(TODAY())+7))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6404,25 +6644,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912CCFBE-FF25-4E81-B6E7-DB3FD7BFAEC6}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.453125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" style="43" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" style="36" customWidth="1"/>
     <col min="3" max="3" width="30.54296875" style="9" customWidth="1"/>
     <col min="4" max="4" width="13.453125" style="9" customWidth="1"/>
     <col min="5" max="5" width="92.81640625" style="9" customWidth="1"/>
     <col min="6" max="6" width="34.54296875" style="9" customWidth="1"/>
     <col min="7" max="7" width="30.54296875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="23.1796875" style="24" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" style="19" customWidth="1"/>
     <col min="9" max="9" width="25.81640625" style="9" customWidth="1"/>
-    <col min="10" max="10" width="18.54296875" style="46" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" style="39" customWidth="1"/>
     <col min="11" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
@@ -6464,27 +6704,33 @@
         <v>270</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="13" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="7"/>
+      <c r="B2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="13"/>
       <c r="I2" s="7"/>
       <c r="J2" s="4"/>
       <c r="K2" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="25" x14ac:dyDescent="0.35">
-      <c r="A3" s="10"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
@@ -6493,45 +6739,49 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="4"/>
       <c r="K3" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="10"/>
+      <c r="A4" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B4" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="6"/>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="13"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="8"/>
       <c r="K4" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>87</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
+      <c r="F5" s="6"/>
       <c r="G5" s="7"/>
       <c r="H5" s="13"/>
       <c r="I5" s="8"/>
@@ -6540,10 +6790,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="10"/>
+    <row r="6" spans="1:12" ht="25" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B6" s="4" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="6" t="s">
@@ -6560,9 +6812,11 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="25" x14ac:dyDescent="0.35">
-      <c r="A7" s="10"/>
+      <c r="A7" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B7" s="4" t="s">
-        <v>210</v>
+        <v>104</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6" t="s">
@@ -6578,15 +6832,15 @@
         <v>293</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="25" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="6" t="s">
-        <v>219</v>
-      </c>
+      <c r="D8" s="6"/>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="7"/>
@@ -6597,13 +6851,17 @@
         <v>293</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="10"/>
+    <row r="9" spans="1:12" ht="34.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>219</v>
+      </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="7"/>
@@ -6614,10 +6872,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="34.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10"/>
+    <row r="10" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B10" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6" t="s">
@@ -6626,21 +6886,23 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
+      <c r="J10" s="4"/>
       <c r="K10" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10"/>
+    <row r="11" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B11" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6" t="s">
-        <v>219</v>
+        <v>116</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -6652,56 +6914,60 @@
         <v>293</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B12" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6" t="s">
-        <v>116</v>
+        <v>219</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="8"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="4"/>
       <c r="K12" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:12" s="45" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B13" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="5"/>
+        <v>110</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="D13" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+        <v>211</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="13"/>
+      <c r="I13" s="7"/>
       <c r="J13" s="4"/>
       <c r="K13" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="56" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A14" s="55"/>
+    <row r="14" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B14" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E14" s="15"/>
+        <v>124</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="7"/>
       <c r="H14" s="7"/>
@@ -6711,10 +6977,12 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="35.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:12" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B15" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="4"/>
@@ -6728,31 +6996,37 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B16" s="4" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="4"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
       <c r="K16" s="9" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="10"/>
-      <c r="B17" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
       <c r="F17" s="4"/>
       <c r="G17" s="7"/>
       <c r="H17" s="13"/>
@@ -6762,80 +7036,88 @@
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="11" t="s">
+    <row r="18" spans="1:11" s="63" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" s="74" customFormat="1" ht="409.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="75"/>
-      <c r="B19" s="71" t="s">
+      <c r="D18" s="76" t="s">
+        <v>215</v>
+      </c>
+      <c r="E18" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" s="65"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="63" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="64" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="66"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="60"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="63" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C20" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="87" t="s">
-        <v>215</v>
-      </c>
-      <c r="E19" s="71" t="s">
-        <v>274</v>
-      </c>
-      <c r="F19" s="76"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" s="74" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="75"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20" s="71"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="73"/>
-      <c r="K20" s="74" t="s">
-        <v>292</v>
+      <c r="E20" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="10"/>
-      <c r="B21" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="46" t="s">
-        <v>226</v>
-      </c>
-      <c r="F21" s="6"/>
+      <c r="A21" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="13"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -6844,16 +7126,18 @@
         <v>293</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="10"/>
+    <row r="22" spans="1:11" ht="13" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B22" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C22" s="5"/>
-      <c r="D22" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" s="17"/>
       <c r="F22" s="4"/>
       <c r="G22" s="13"/>
       <c r="H22" s="8"/>
@@ -6864,15 +7148,17 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="13" x14ac:dyDescent="0.35">
-      <c r="A23" s="10"/>
+      <c r="A23" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="B23" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E23" s="17"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="98" t="s">
+        <v>266</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="13"/>
       <c r="H23" s="8"/>
@@ -6882,185 +7168,190 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="13" x14ac:dyDescent="0.35">
-      <c r="A24" s="24"/>
-      <c r="B24" s="4" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="109" t="s">
-        <v>266</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="4"/>
       <c r="K24" s="9" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:11" s="84" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B25" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="82"/>
+      <c r="D25" s="82" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="F25" s="82"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="81"/>
+      <c r="I25" s="82"/>
+      <c r="J25" s="81"/>
+      <c r="K25" s="84" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="39" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E26" s="81" t="s">
+        <v>290</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="84" customFormat="1" ht="51.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="82"/>
+      <c r="D27" s="82" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="95" customFormat="1" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="93" t="s">
+      <c r="E27" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="F27" s="82"/>
+      <c r="G27" s="82"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="82"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="84" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93" t="s">
+      <c r="C28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="84" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="82" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="82"/>
+      <c r="D29" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="E26" s="92" t="s">
-        <v>288</v>
-      </c>
-      <c r="F26" s="93"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="92"/>
-      <c r="K26" s="95" t="s">
+      <c r="E29" s="81" t="s">
+        <v>287</v>
+      </c>
+      <c r="F29" s="82"/>
+      <c r="G29" s="82"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="84" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="39" x14ac:dyDescent="0.35">
-      <c r="B27" s="7" t="s">
+    <row r="30" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="E27" s="92" t="s">
-        <v>290</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" s="95" customFormat="1" ht="51.5" x14ac:dyDescent="0.35">
-      <c r="B28" s="93" t="s">
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" s="84" customFormat="1" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="82" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93" t="s">
-        <v>116</v>
-      </c>
-      <c r="E28" s="92" t="s">
-        <v>279</v>
-      </c>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="92"/>
-      <c r="K28" s="95" t="s">
+      <c r="C31" s="82"/>
+      <c r="D31" s="82" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" s="82" t="s">
+        <v>289</v>
+      </c>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="84" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="B29" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E29" s="53" t="s">
-        <v>282</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" s="95" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="E30" s="92" t="s">
-        <v>287</v>
-      </c>
-      <c r="F30" s="93"/>
-      <c r="G30" s="93"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="92"/>
-      <c r="K30" s="95" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B31" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="110" t="s">
-        <v>276</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" s="95" customFormat="1" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="B32" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93" t="s">
-        <v>275</v>
-      </c>
-      <c r="E32" s="93" t="s">
-        <v>289</v>
-      </c>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="95" t="s">
-        <v>294</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="D1:D23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="D1:D22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -7070,7 +7361,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F13D86A2-B61F-40FD-AEDE-2BA08EAA4881}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -7116,99 +7407,99 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="58" customWidth="1"/>
-    <col min="2" max="2" width="56.81640625" style="58" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.81640625" style="58" customWidth="1"/>
-    <col min="5" max="16384" width="8.81640625" style="58"/>
+    <col min="1" max="1" width="12" style="47" customWidth="1"/>
+    <col min="2" max="2" width="56.81640625" style="47" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" style="47" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.81640625" style="47" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="111" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
     </row>
     <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="49" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="50" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="51" t="s">
         <v>250</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="51" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="51" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="51" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="B5" s="51" t="s">
         <v>248</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="51" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="51" t="s">
         <v>252</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="51" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="63" t="s">
+      <c r="D6" s="52" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="51" t="s">
         <v>247</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="C7" s="62"/>
+      <c r="C7" s="51"/>
       <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:10" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.35">
@@ -7222,8 +7513,8 @@
       <c r="D8" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="J8" s="24"/>
+      <c r="H8" s="19"/>
+      <c r="J8" s="19"/>
     </row>
     <row r="9" spans="1:10" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A9" s="7"/>
@@ -7236,8 +7527,8 @@
       <c r="D9" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="J9" s="24"/>
+      <c r="H9" s="19"/>
+      <c r="J9" s="19"/>
     </row>
     <row r="10" spans="1:10" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A10" s="7"/>
@@ -7250,8 +7541,8 @@
       <c r="D10" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="J10" s="24"/>
+      <c r="H10" s="19"/>
+      <c r="J10" s="19"/>
     </row>
     <row r="11" spans="1:10" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
@@ -7264,8 +7555,8 @@
       <c r="D11" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="J11" s="24"/>
+      <c r="H11" s="19"/>
+      <c r="J11" s="19"/>
     </row>
     <row r="12" spans="1:10" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A12" s="7"/>
@@ -7278,8 +7569,8 @@
       <c r="D12" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="J12" s="24"/>
+      <c r="H12" s="19"/>
+      <c r="J12" s="19"/>
     </row>
     <row r="13" spans="1:10" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A13" s="7"/>
@@ -7292,8 +7583,8 @@
       <c r="D13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H13" s="24"/>
-      <c r="J13" s="24"/>
+      <c r="H13" s="19"/>
+      <c r="J13" s="19"/>
     </row>
     <row r="14" spans="1:10" s="9" customFormat="1" ht="25" x14ac:dyDescent="0.35">
       <c r="A14" s="7"/>
@@ -7306,28 +7597,28 @@
       <c r="D14" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H14" s="24"/>
-      <c r="J14" s="24"/>
-    </row>
-    <row r="15" spans="1:10" s="64" customFormat="1" ht="25" x14ac:dyDescent="0.25">
-      <c r="A15" s="65" t="s">
+      <c r="H14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:10" s="53" customFormat="1" ht="25" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
         <v>116</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="D15" s="66"/>
+      <c r="D15" s="55"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62" t="s">
+      <c r="C16" s="51"/>
+      <c r="D16" s="51" t="s">
         <v>262</v>
       </c>
     </row>
@@ -7351,12 +7642,12 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="56" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="56" t="s">
         <v>268</v>
       </c>
     </row>
